--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Bomlist-2022/LE4C_BOM_1.32_230808/LE4C_BOM_1.32_230808/LE4C_BOM_1.32_230807 .xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Bomlist-2022/LE4C_BOM_1.32_230808/LE4C_BOM_1.32_230808/LE4C_BOM_1.32_230807 .xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HClould\Dropbox\VNET_HW\1.LE4c\0. Release\LE4c_1.32_230808\LE4C_BOM_1.32_230808\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Gia Công\Bomlist-2022\LE4C_BOM_1.32_230808\LE4C_BOM_1.32_230808\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584C4D32-3ECA-4BA9-936D-4CBCB168E5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Full_BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Full_BOM!$G$1:$G$80</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1494,7 +1493,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1924,10 +1923,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1943,9 +1945,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1995,7 +1994,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7EB6FC2-392E-C7DF-405D-48246F1CBE97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7EB6FC2-392E-C7DF-405D-48246F1CBE97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,12 +2319,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2376,7 +2375,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="12" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
@@ -2410,8 +2409,8 @@
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:14" s="12" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="1"/>
       <c r="D3" s="19" t="s">
         <v>335</v>
@@ -2436,7 +2435,7 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:14" s="12" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+      <c r="A4" s="48">
         <v>2</v>
       </c>
       <c r="B4" s="46" t="s">
@@ -2469,8 +2468,8 @@
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:14" s="12" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>51</v>
@@ -2926,7 +2925,7 @@
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" s="12" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
+      <c r="A19" s="48">
         <v>16</v>
       </c>
       <c r="B19" s="46" t="s">
@@ -2959,8 +2958,8 @@
       <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" s="12" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="5" t="s">
         <v>403</v>
       </c>
@@ -3186,10 +3185,10 @@
       <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" s="40" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54">
+      <c r="A27" s="48">
         <v>23</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="52" t="s">
         <v>208</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -3219,8 +3218,8 @@
       <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" s="39" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="21" t="s">
         <v>27</v>
       </c>
@@ -3248,8 +3247,8 @@
       <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" s="39" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="19" t="s">
         <v>27</v>
       </c>
@@ -3974,7 +3973,7 @@
       <c r="L50" s="11"/>
     </row>
     <row r="51" spans="1:12" s="12" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54">
+      <c r="A51" s="48">
         <v>45</v>
       </c>
       <c r="B51" s="46" t="s">
@@ -4005,8 +4004,8 @@
       <c r="L51" s="11"/>
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
-      <c r="B52" s="47"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="29"/>
       <c r="D52" s="1" t="s">
         <v>96</v>
@@ -4032,8 +4031,8 @@
       <c r="L52" s="11"/>
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="47"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="29"/>
       <c r="D53" s="1" t="s">
         <v>96</v>
@@ -4059,8 +4058,8 @@
       <c r="L53" s="11"/>
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
-      <c r="B54" s="48"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="30"/>
       <c r="D54" s="1" t="s">
         <v>96</v>
@@ -4086,10 +4085,10 @@
       <c r="L54" s="11"/>
     </row>
     <row r="55" spans="1:12" s="40" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="54">
+      <c r="A55" s="48">
         <v>46</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="50" t="s">
         <v>343</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -4119,8 +4118,8 @@
       <c r="L55" s="11"/>
     </row>
     <row r="56" spans="1:12" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="50"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="19" t="s">
         <v>39</v>
       </c>
@@ -4212,7 +4211,7 @@
       <c r="L58" s="11"/>
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54">
+      <c r="A59" s="48">
         <v>49</v>
       </c>
       <c r="B59" s="46" t="s">
@@ -4245,8 +4244,8 @@
       <c r="L59" s="11"/>
     </row>
     <row r="60" spans="1:12" s="39" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
-      <c r="B60" s="48"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
         <v>91</v>
@@ -4818,12 +4817,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="B59:B60"/>
@@ -4832,6 +4825,12 @@
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4840,10 +4839,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FCBD43-E6C0-4A40-8792-6BBA6E6CB8EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -5150,7 +5149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC85998-BFFA-46B0-AA5E-08848DC9A0C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
